--- a/medicine/Enfance/Fabienne_Loodts/Fabienne_Loodts.xlsx
+++ b/medicine/Enfance/Fabienne_Loodts/Fabienne_Loodts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabienne Loodts, née le 29 janvier 1982 à Namur, est une illustratrice, autrice de littérature d'enfance et de jeunesse et de romans graphiques belge.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fabienne Loodts naît le 29 janvier 1982 à Namur[1],[2].
-Elle suit une formation artistique à l’École nationale supérieure des arts visuels de La Cambre (ENSAV) où elle obtient une licence en communication graphique[3].
-Dans le cadre du programme Erasmus, elle est étudiante à l’Université de Brighton en illustration[4].
-Elle se forme également en gravure en cours du soir à l'Académie des beaux-arts de Boitsfort[4].
-Elle est lauréate d’une bourse de la Fédération Wallonie-Bruxelles - Résidence d’auteur, 2007 et 2008[2]. Elle est également lauréate d’une bourse d'aide au projet octroyée par la même fédération en 2008[2].
-En 2012, elle illustre l'enquête Paysages en Bataille[5].
-Elle avoue aimer dessiner les gens, les visages et parler de relations humaines[2]. Elle utilise 
-l'encre de Chine, la plume, les crayons de couleurs, le stylo à bille et la gouache[2].
-Elle réalise aussi des illustrations pour des albums jeunesses, des affiches et des magazines[6]. Elle expose et anime divers ateliers au centre culturel de Huy en 2023[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabienne Loodts naît le 29 janvier 1982 à Namur,.
+Elle suit une formation artistique à l’École nationale supérieure des arts visuels de La Cambre (ENSAV) où elle obtient une licence en communication graphique.
+Dans le cadre du programme Erasmus, elle est étudiante à l’Université de Brighton en illustration.
+Elle se forme également en gravure en cours du soir à l'Académie des beaux-arts de Boitsfort.
+Elle est lauréate d’une bourse de la Fédération Wallonie-Bruxelles - Résidence d’auteur, 2007 et 2008. Elle est également lauréate d’une bourse d'aide au projet octroyée par la même fédération en 2008.
+En 2012, elle illustre l'enquête Paysages en Bataille.
+Elle avoue aimer dessiner les gens, les visages et parler de relations humaines. Elle utilise 
+l'encre de Chine, la plume, les crayons de couleurs, le stylo à bille et la gouache.
+Elle réalise aussi des illustrations pour des albums jeunesses, des affiches et des magazines. Elle expose et anime divers ateliers au centre culturel de Huy en 2023.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit à Bruxelles après avoir résidé à Berlin[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit à Bruxelles après avoir résidé à Berlin.
 </t>
         </is>
       </c>
@@ -583,18 +599,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publications
-Roman graphique
-Le Livre des nuages, Warum, Angoulême, 26 janvier 2012Scénario et dessin : Fabienne Loodts - Couleurs : noir et blanc -  (ISBN 9782915920666),adapté du roman éponyme de Chloé Aridjis.
-Illustrations de livres jeunesse
-Trains[8], Tandem (2005)
-La Promenade de l’ombre, texte de Guillaume Apollinaire, Passage Piétons 2005  (ISBN 9782913413252)
-Les Démons caca[9], texte de Fabienne Loodts, Esperluète, 2005  (ISBN 2-930223-62-6)
-Les Neuf Frères et le diable - Nande vllaznit edhe dreqi, texte de Igballe Bajraktari : conte bilingue français-albanais, L'Harmattan (2005)  (ISBN 9782747572514)
-Le Livre[2], texte de Benoît Loodts, Ministère de la Fédération Wallonie Bruxelles / Service général des Lettres et du Livre (2008)
-Déesses des elfes sur le trottoir[9], texte de Léna Ellka, Zoom éditions, 2009  (ISBN 9782919934560)
-Le Petit Chapeau de l’Empereur[9], texte de Julie Versele, La Renaissance du livre, 2015  (ISBN 9782507052683)
-Tom[9], texte de Stéphanie Mangez, Lansman, coll. « Théâtre à vif », 2019  (ISBN 9782807102552)</t>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Roman graphique</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Livre des nuages, Warum, Angoulême, 26 janvier 2012Scénario et dessin : Fabienne Loodts - Couleurs : noir et blanc -  (ISBN 9782915920666),adapté du roman éponyme de Chloé Aridjis.</t>
         </is>
       </c>
     </row>
@@ -619,12 +634,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Illustrations de livres jeunesse</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Trains, Tandem (2005)
+La Promenade de l’ombre, texte de Guillaume Apollinaire, Passage Piétons 2005  (ISBN 9782913413252)
+Les Démons caca, texte de Fabienne Loodts, Esperluète, 2005  (ISBN 2-930223-62-6)
+Les Neuf Frères et le diable - Nande vllaznit edhe dreqi, texte de Igballe Bajraktari : conte bilingue français-albanais, L'Harmattan (2005)  (ISBN 9782747572514)
+Le Livre, texte de Benoît Loodts, Ministère de la Fédération Wallonie Bruxelles / Service général des Lettres et du Livre (2008)
+Déesses des elfes sur le trottoir, texte de Léna Ellka, Zoom éditions, 2009  (ISBN 9782919934560)
+Le Petit Chapeau de l’Empereur, texte de Julie Versele, La Renaissance du livre, 2015  (ISBN 9782507052683)
+Tom, texte de Stéphanie Mangez, Lansman, coll. « Théâtre à vif », 2019  (ISBN 9782807102552)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fabienne_Loodts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabienne_Loodts</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fresque à Bruxelles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fresque Les Ancêtres bienveillants est une œuvre faisant partie du parcours BD de Bruxelles, inaugurée le 18 décembre 2019[10],[11] qui représente des couples qui veillent sur les habitants du quartier[6]. Ils représentent les ancêtres des résidents. Ils sont originaires de Belgique, du Congo, de Guinée, du Sénégal, d'Espagne, de France et de Pologne[6], à la suite d’un appel lancé en 2018 par le contrat de quartier durable Jonction pour égayer les tunnels passant sous les voies ferroviaires reliant le nord et le sud de Bruxelles. Sa fresque est située rue de la Fontaine[12] en-dessous du tunnel ferroviaire Nord-Sud, la réalisation est due à Urbana.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fresque Les Ancêtres bienveillants est une œuvre faisant partie du parcours BD de Bruxelles, inaugurée le 18 décembre 2019, qui représente des couples qui veillent sur les habitants du quartier. Ils représentent les ancêtres des résidents. Ils sont originaires de Belgique, du Congo, de Guinée, du Sénégal, d'Espagne, de France et de Pologne, à la suite d’un appel lancé en 2018 par le contrat de quartier durable Jonction pour égayer les tunnels passant sous les voies ferroviaires reliant le nord et le sud de Bruxelles. Sa fresque est située rue de la Fontaine en-dessous du tunnel ferroviaire Nord-Sud, la réalisation est due à Urbana.
 </t>
         </is>
       </c>
